--- a/hello.xlsx
+++ b/hello.xlsx
@@ -14,27 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>EQUIPE</t>
   </si>
   <si>
-    <t>CARGO</t>
-  </si>
-  <si>
     <t>HORÁRIO</t>
   </si>
   <si>
-    <t>ESCALA EQUIPE MULTIDISCIPLINAR 
- HOSPITAL ESTADUAL DE PIRENÓPOLIS ERNESTINA LOPES JAIME 
+    <t>ESCALA MÉDICA CENTRO CIRÚRGICO
+ HOSPITAL ESTADUAL DE PIRENÓPOLIS ERNESTINA LOPES JAIME
  JULHO / 2019</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Diurno</t>
+  </si>
+  <si>
+    <t>André Messias Alencar Carlos da Silva</t>
+  </si>
+  <si>
+    <t>07:00 as 19:00</t>
+  </si>
+  <si>
+    <t>Diogo Milioli Ferreira</t>
+  </si>
+  <si>
+    <t>Jean Felipe Medeiros Silva</t>
+  </si>
+  <si>
+    <t>Willy Andre Campos</t>
+  </si>
+  <si>
+    <t>Zé Andre Campos</t>
+  </si>
+  <si>
+    <t>Noturno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,8 +91,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,8 +120,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF005AAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,19 +141,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,57 +517,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="74.7109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="33" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="3.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="3.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="3.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="3.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="3.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7109375" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.62" customHeight="1">
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.62" customHeight="1"/>
-    <row r="3" spans="1:4" ht="12.62" customHeight="1"/>
-    <row r="4" spans="1:4" ht="12.62" customHeight="1"/>
-    <row r="5" spans="1:4" ht="12.62" customHeight="1"/>
-    <row r="6" spans="1:4" ht="12.62" customHeight="1"/>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+    <row r="1" spans="1:33" ht="12.62" customHeight="1">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="12.62" customHeight="1"/>
+    <row r="3" spans="1:33" ht="12.62" customHeight="1"/>
+    <row r="4" spans="1:33" ht="12.62" customHeight="1"/>
+    <row r="5" spans="1:33" ht="12.62" customHeight="1"/>
+    <row r="6" spans="1:33" ht="12.62" customHeight="1"/>
+    <row r="7" spans="1:33">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="3"/>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1">
+        <v>11</v>
+      </c>
+      <c r="N7" s="1">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1">
+        <v>13</v>
+      </c>
+      <c r="P7" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>15</v>
+      </c>
+      <c r="R7" s="1">
+        <v>16</v>
+      </c>
+      <c r="S7" s="1">
+        <v>17</v>
+      </c>
+      <c r="T7" s="1">
+        <v>18</v>
+      </c>
+      <c r="U7" s="1">
+        <v>19</v>
+      </c>
+      <c r="V7" s="1">
+        <v>20</v>
+      </c>
+      <c r="W7" s="1">
+        <v>21</v>
+      </c>
+      <c r="X7" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B1:AG6"/>
+    <mergeCell ref="A9:AG9"/>
+    <mergeCell ref="A15:AG15"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>